--- a/data/trans_orig/P78DS2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BB0734F-E61D-43C3-93D1-A6F2BA1F044C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{138E9281-47F7-4C2A-BC12-D30D51299A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{589E43B9-A533-44D0-BDEA-E0D8C9859816}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1676DC81-DBD9-418D-8D3F-1E3B3D266720}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="214">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 2 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -101,589 +101,580 @@
     <t>0,31%</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
+  </si>
+  <si>
+    <t>Cuotas de seguros</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
-  </si>
-  <si>
-    <t>Cuotas de seguros</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>96,95%</t>
   </si>
   <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1098,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CCC7EB-F6CE-4F9D-8FC3-CB369B888FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B459035D-9BC2-456F-976A-34F20B63CED0}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1842,22 +1833,22 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1893,22 +1884,22 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1944,22 +1935,22 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1989,13 +1980,13 @@
         <v>3790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2004,13 +1995,13 @@
         <v>3475</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2019,13 +2010,13 @@
         <v>7265</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2055,10 +2046,10 @@
         <v>3205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>56</v>
@@ -2073,10 +2064,10 @@
         <v>20</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2082,13 @@
         <v>7811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2112,7 +2103,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2121,13 +2112,13 @@
         <v>8652</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2133,13 @@
         <v>2558</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2157,13 +2148,13 @@
         <v>1473</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2172,13 +2163,13 @@
         <v>4030</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,22 +2190,22 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2244,13 +2235,13 @@
         <v>491546</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>675</v>
@@ -2259,13 +2250,13 @@
         <v>523470</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M24" s="7">
         <v>1037</v>
@@ -2274,13 +2265,13 @@
         <v>1015016</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,7 +2327,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -2354,7 +2345,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2363,13 +2354,13 @@
         <v>975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2378,13 +2369,13 @@
         <v>975</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2420,7 +2411,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2435,7 +2426,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2471,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2486,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2522,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2537,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2543,13 @@
         <v>1032</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -2567,13 +2558,13 @@
         <v>4262</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -2582,13 +2573,13 @@
         <v>5294</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2600,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2624,7 +2615,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2639,7 +2630,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2675,7 +2666,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2690,7 +2681,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,7 +2702,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2726,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2741,7 +2732,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,7 +2753,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2777,7 +2768,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2792,7 +2783,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,10 +2798,10 @@
         <v>308618</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>33</v>
@@ -2822,13 +2813,13 @@
         <v>346863</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M35" s="7">
         <v>847</v>
@@ -2837,13 +2828,13 @@
         <v>655481</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,7 +2890,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
@@ -2917,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2932,7 +2923,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -2968,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2983,7 +2974,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3019,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3034,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3070,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3085,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3115,13 +3106,13 @@
         <v>2460</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3130,13 +3121,13 @@
         <v>4411</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -3145,13 +3136,13 @@
         <v>6870</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3187,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3202,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3214,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3238,7 +3229,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3274,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3289,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -3325,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -3334,13 +3325,13 @@
         <v>637</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -3349,13 +3340,13 @@
         <v>637</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,10 +3361,10 @@
         <v>308230</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>33</v>
@@ -3385,13 +3376,13 @@
         <v>377937</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M46" s="7">
         <v>827</v>
@@ -3400,13 +3391,13 @@
         <v>686168</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,7 +3453,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>10</v>
@@ -3480,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -3495,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -3531,7 +3522,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3546,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -3582,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3597,7 +3588,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3633,7 +3624,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -3648,7 +3639,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -3684,7 +3675,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -3699,7 +3690,7 @@
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -3735,7 +3726,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -3750,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -3786,7 +3777,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -3801,7 +3792,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -3837,7 +3828,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -3852,7 +3843,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -3888,7 +3879,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -3903,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -3936,7 +3927,7 @@
         <v>33</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>38</v>
@@ -3951,7 +3942,7 @@
         <v>33</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>38</v>
@@ -4025,7 +4016,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>10</v>
@@ -4043,7 +4034,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4058,7 +4049,7 @@
         <v>12</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4073,7 +4064,7 @@
         <v>12</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,7 +4085,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4109,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4124,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4136,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -4160,7 +4151,7 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -4175,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4187,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4211,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4226,7 +4217,7 @@
         <v>12</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4232,13 @@
         <v>1970</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -4256,13 +4247,13 @@
         <v>722</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M63" s="7">
         <v>2</v>
@@ -4271,7 +4262,7 @@
         <v>2692</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>11</v>
@@ -4298,7 +4289,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -4313,7 +4304,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -4328,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -4364,7 +4355,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -4379,7 +4370,7 @@
         <v>12</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4415,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -4430,7 +4421,7 @@
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -4466,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -4481,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,7 +4597,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -4615,13 +4606,13 @@
         <v>1124</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -4630,13 +4621,13 @@
         <v>1124</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,7 +4648,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -4666,13 +4657,13 @@
         <v>160</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -4681,13 +4672,13 @@
         <v>160</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,7 +4699,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -4723,7 +4714,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -4738,7 +4729,7 @@
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4744,13 @@
         <v>1126</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -4774,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M73" s="7">
         <v>1</v>
@@ -4783,13 +4774,13 @@
         <v>1126</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,7 +4801,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H74" s="7">
         <v>6</v>
@@ -4819,13 +4810,13 @@
         <v>2616</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M74" s="7">
         <v>7</v>
@@ -4834,13 +4825,13 @@
         <v>3714</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4852,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
@@ -4876,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M75" s="7">
         <v>0</v>
@@ -4891,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,7 +4903,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -4927,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M76" s="7">
         <v>1</v>
@@ -4936,13 +4927,13 @@
         <v>1205</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="P76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,7 +4954,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -4972,13 +4963,13 @@
         <v>731</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -4987,13 +4978,13 @@
         <v>731</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,7 +5005,7 @@
         <v>12</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -5023,13 +5014,13 @@
         <v>729</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="M78" s="7">
         <v>1</v>
@@ -5038,13 +5029,13 @@
         <v>729</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5050,13 @@
         <v>596250</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H79" s="7">
         <v>889</v>
@@ -5074,13 +5065,13 @@
         <v>759542</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M79" s="7">
         <v>1458</v>
@@ -5089,13 +5080,13 @@
         <v>1355791</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,7 +5142,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>10</v>
@@ -5163,13 +5154,13 @@
         <v>51568</v>
       </c>
       <c r="E81" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="G81" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H81" s="7">
         <v>63</v>
@@ -5178,13 +5169,13 @@
         <v>48416</v>
       </c>
       <c r="J81" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L81" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M81" s="7">
         <v>113</v>
@@ -5193,13 +5184,13 @@
         <v>99984</v>
       </c>
       <c r="O81" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q81" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,7 +5211,7 @@
         <v>12</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H82" s="7">
         <v>1</v>
@@ -5235,7 +5226,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
@@ -5244,13 +5235,13 @@
         <v>1145</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,7 +5262,7 @@
         <v>12</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H83" s="7">
         <v>2</v>
@@ -5286,7 +5277,7 @@
         <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="M83" s="7">
         <v>2</v>
@@ -5295,13 +5286,13 @@
         <v>3124</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5307,13 @@
         <v>2378</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
@@ -5337,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="M84" s="7">
         <v>2</v>
@@ -5352,7 +5343,7 @@
         <v>11</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5358,13 @@
         <v>27494</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H85" s="7">
         <v>32</v>
@@ -5382,13 +5373,13 @@
         <v>25130</v>
       </c>
       <c r="J85" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="L85" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L85" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M85" s="7">
         <v>58</v>
@@ -5397,13 +5388,13 @@
         <v>52623</v>
       </c>
       <c r="O85" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P85" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P85" s="7" t="s">
+      <c r="Q85" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q85" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H86" s="7">
         <v>0</v>
@@ -5439,7 +5430,7 @@
         <v>12</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -5454,7 +5445,7 @@
         <v>12</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H87" s="7">
         <v>0</v>
@@ -5490,7 +5481,7 @@
         <v>12</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="M87" s="7">
         <v>0</v>
@@ -5505,7 +5496,7 @@
         <v>12</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H88" s="7">
         <v>0</v>
@@ -5541,7 +5532,7 @@
         <v>12</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="M88" s="7">
         <v>0</v>
@@ -5556,7 +5547,7 @@
         <v>12</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,7 +5568,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="H89" s="7">
         <v>0</v>
@@ -5592,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="M89" s="7">
         <v>0</v>
@@ -5607,7 +5598,7 @@
         <v>12</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5613,13 @@
         <v>751730</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H90" s="7">
         <v>925</v>
@@ -5637,13 +5628,13 @@
         <v>759596</v>
       </c>
       <c r="J90" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L90" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M90" s="7">
         <v>1580</v>
@@ -5652,13 +5643,13 @@
         <v>1511325</v>
       </c>
       <c r="O90" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q90" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q90" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5717,13 @@
         <v>52503</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="H92" s="7">
         <v>66</v>
@@ -5741,13 +5732,13 @@
         <v>51238</v>
       </c>
       <c r="J92" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K92" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="L92" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L92" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M92" s="7">
         <v>117</v>
@@ -5756,13 +5747,13 @@
         <v>103741</v>
       </c>
       <c r="O92" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q92" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P92" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q92" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +5774,7 @@
         <v>12</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H93" s="7">
         <v>2</v>
@@ -5792,13 +5783,13 @@
         <v>1305</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="M93" s="7">
         <v>2</v>
@@ -5807,13 +5798,13 @@
         <v>1305</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H94" s="7">
         <v>2</v>
@@ -5843,13 +5834,13 @@
         <v>3124</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="M94" s="7">
         <v>2</v>
@@ -5858,13 +5849,13 @@
         <v>3124</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5870,13 @@
         <v>3503</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="H95" s="7">
         <v>0</v>
@@ -5900,7 +5891,7 @@
         <v>12</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M95" s="7">
         <v>3</v>
@@ -5909,13 +5900,13 @@
         <v>3503</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5921,13 @@
         <v>38636</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H96" s="7">
         <v>54</v>
@@ -5945,13 +5936,13 @@
         <v>41134</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M96" s="7">
         <v>90</v>
@@ -5960,10 +5951,10 @@
         <v>79769</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="Q96" s="7" t="s">
         <v>56</v>
@@ -5987,7 +5978,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H97" s="7">
         <v>5</v>
@@ -5996,13 +5987,13 @@
         <v>4181</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="M97" s="7">
         <v>5</v>
@@ -6011,13 +6002,13 @@
         <v>4181</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6023,13 @@
         <v>9016</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="H98" s="7">
         <v>1</v>
@@ -6047,13 +6038,13 @@
         <v>840</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="M98" s="7">
         <v>5</v>
@@ -6065,10 +6056,10 @@
         <v>42</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6074,13 @@
         <v>2558</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="H99" s="7">
         <v>3</v>
@@ -6098,10 +6089,10 @@
         <v>2204</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>44</v>
@@ -6113,10 +6104,10 @@
         <v>4761</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q99" s="7" t="s">
         <v>40</v>
@@ -6140,7 +6131,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H100" s="7">
         <v>2</v>
@@ -6149,13 +6140,13 @@
         <v>1366</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="M100" s="7">
         <v>2</v>
@@ -6164,13 +6155,13 @@
         <v>1366</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6176,13 @@
         <v>3168607</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H101" s="7">
         <v>4993</v>
@@ -6200,13 +6191,13 @@
         <v>3550210</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="M101" s="7">
         <v>8145</v>
@@ -6215,13 +6206,13 @@
         <v>6718817</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,7 +6268,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{138E9281-47F7-4C2A-BC12-D30D51299A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C945D91F-E450-4417-8B36-2B87E98C45D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1676DC81-DBD9-418D-8D3F-1E3B3D266720}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E752DDA5-6FF9-4B90-AD48-4A752231016E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1089,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B459035D-9BC2-456F-976A-34F20B63CED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5167A4E0-DA87-49C4-86A4-832228A4A9D6}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
